--- a/DATA/SOURCE/TradeHistory/trade_2324.xlsx
+++ b/DATA/SOURCE/TradeHistory/trade_2324.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prashant.tripathi\Code\Upstox\DATA\SOURCE\TradeHistory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Material\Anudip foundation\Main Projects\PortfolioTracker\DATA\SOURCE\TradeHistory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027B7CB8-A83D-403E-9B62-0D4D7CA551DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C3FC3F-8F1F-475A-B5E5-A1555801F908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRADE" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="154">
   <si>
     <t>UPSTOX SECURITIES PRIVATE LIMITED</t>
   </si>
@@ -34,18 +34,6 @@
     <t>Dealing Office :Sunshine Tower,30th Floor, Senapati Bapat Marg,Dadar (West), Mumbai 400 013</t>
   </si>
   <si>
-    <t>UCC</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>PRASHANT TRIPATHI</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -86,6 +74,411 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>NIFTY</t>
+  </si>
+  <si>
+    <t>FON</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>European Call</t>
+  </si>
+  <si>
+    <t>21-03-2024</t>
+  </si>
+  <si>
+    <t>22190784</t>
+  </si>
+  <si>
+    <t>12:49:44</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>21294229</t>
+  </si>
+  <si>
+    <t>12:39:12</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>European Put</t>
+  </si>
+  <si>
+    <t>89653963</t>
+  </si>
+  <si>
+    <t>10:26:20</t>
+  </si>
+  <si>
+    <t>89425966</t>
+  </si>
+  <si>
+    <t>10:21:39</t>
+  </si>
+  <si>
+    <t>29-02-2024</t>
+  </si>
+  <si>
+    <t>19361549</t>
+  </si>
+  <si>
+    <t>13:17:24</t>
+  </si>
+  <si>
+    <t>19547632</t>
+  </si>
+  <si>
+    <t>13:19:18</t>
+  </si>
+  <si>
+    <t>105213019</t>
+  </si>
+  <si>
+    <t>13:54:11</t>
+  </si>
+  <si>
+    <t>104422663</t>
+  </si>
+  <si>
+    <t>13:41:01</t>
+  </si>
+  <si>
+    <t>95841413</t>
+  </si>
+  <si>
+    <t>13:09:09</t>
+  </si>
+  <si>
+    <t>96619296</t>
+  </si>
+  <si>
+    <t>13:23:50</t>
+  </si>
+  <si>
+    <t>22-02-2024</t>
+  </si>
+  <si>
+    <t>30640597</t>
+  </si>
+  <si>
+    <t>13:39:46</t>
+  </si>
+  <si>
+    <t>38163478</t>
+  </si>
+  <si>
+    <t>14:05:10</t>
+  </si>
+  <si>
+    <t>91113423</t>
+  </si>
+  <si>
+    <t>12:45:49</t>
+  </si>
+  <si>
+    <t>91130078</t>
+  </si>
+  <si>
+    <t>12:47:17</t>
+  </si>
+  <si>
+    <t>BANKNIFTY</t>
+  </si>
+  <si>
+    <t>21-02-2024</t>
+  </si>
+  <si>
+    <t>690904919</t>
+  </si>
+  <si>
+    <t>13:32:23</t>
+  </si>
+  <si>
+    <t>690958370</t>
+  </si>
+  <si>
+    <t>13:35:44</t>
+  </si>
+  <si>
+    <t>519874225</t>
+  </si>
+  <si>
+    <t>13:39:08</t>
+  </si>
+  <si>
+    <t>520616230</t>
+  </si>
+  <si>
+    <t>13:57:05</t>
+  </si>
+  <si>
+    <t>01-02-2024</t>
+  </si>
+  <si>
+    <t>31128281</t>
+  </si>
+  <si>
+    <t>13:02:04</t>
+  </si>
+  <si>
+    <t>29924759</t>
+  </si>
+  <si>
+    <t>12:53:39</t>
+  </si>
+  <si>
+    <t>25-01-2024</t>
+  </si>
+  <si>
+    <t>19667267</t>
+  </si>
+  <si>
+    <t>15:00:52</t>
+  </si>
+  <si>
+    <t>20144360</t>
+  </si>
+  <si>
+    <t>15:04:23</t>
+  </si>
+  <si>
+    <t>18-01-2024</t>
+  </si>
+  <si>
+    <t>89609597</t>
+  </si>
+  <si>
+    <t>12:22:45</t>
+  </si>
+  <si>
+    <t>89499199</t>
+  </si>
+  <si>
+    <t>12:16:50</t>
+  </si>
+  <si>
+    <t>3348911</t>
+  </si>
+  <si>
+    <t>11:01:15</t>
+  </si>
+  <si>
+    <t>3470297</t>
+  </si>
+  <si>
+    <t>11:05:39</t>
+  </si>
+  <si>
+    <t>11-01-2024</t>
+  </si>
+  <si>
+    <t>90923250</t>
+  </si>
+  <si>
+    <t>14:27:22</t>
+  </si>
+  <si>
+    <t>91019876</t>
+  </si>
+  <si>
+    <t>14:32:02</t>
+  </si>
+  <si>
+    <t>04-01-2024</t>
+  </si>
+  <si>
+    <t>108073643</t>
+  </si>
+  <si>
+    <t>14:29:14</t>
+  </si>
+  <si>
+    <t>4140129</t>
+  </si>
+  <si>
+    <t>13:30:51</t>
+  </si>
+  <si>
+    <t>5077050</t>
+  </si>
+  <si>
+    <t>14:10:03</t>
+  </si>
+  <si>
+    <t>28-12-2023</t>
+  </si>
+  <si>
+    <t>4046465</t>
+  </si>
+  <si>
+    <t>09:56:13</t>
+  </si>
+  <si>
+    <t>3651326</t>
+  </si>
+  <si>
+    <t>09:50:55</t>
+  </si>
+  <si>
+    <t>4633818</t>
+  </si>
+  <si>
+    <t>12:02:12</t>
+  </si>
+  <si>
+    <t>5012514</t>
+  </si>
+  <si>
+    <t>12:29:30</t>
+  </si>
+  <si>
+    <t>21-12-2023</t>
+  </si>
+  <si>
+    <t>51196223</t>
+  </si>
+  <si>
+    <t>15:24:11</t>
+  </si>
+  <si>
+    <t>43551122</t>
+  </si>
+  <si>
+    <t>14:41:07</t>
+  </si>
+  <si>
+    <t>98830990</t>
+  </si>
+  <si>
+    <t>14:17:25</t>
+  </si>
+  <si>
+    <t>94123129</t>
+  </si>
+  <si>
+    <t>13:26:54</t>
+  </si>
+  <si>
+    <t>98680569</t>
+  </si>
+  <si>
+    <t>14:15:51</t>
+  </si>
+  <si>
+    <t>93176627</t>
+  </si>
+  <si>
+    <t>13:12:16</t>
+  </si>
+  <si>
+    <t>7516879</t>
+  </si>
+  <si>
+    <t>14:46:45</t>
+  </si>
+  <si>
+    <t>7071563</t>
+  </si>
+  <si>
+    <t>14:32:15</t>
+  </si>
+  <si>
+    <t>4939525</t>
+  </si>
+  <si>
+    <t>13:13:49</t>
+  </si>
+  <si>
+    <t>4667798</t>
+  </si>
+  <si>
+    <t>12:47:04</t>
+  </si>
+  <si>
+    <t>14-12-2023</t>
+  </si>
+  <si>
+    <t>26366123</t>
+  </si>
+  <si>
+    <t>13:50:40</t>
+  </si>
+  <si>
+    <t>21717380</t>
+  </si>
+  <si>
+    <t>13:11:54</t>
+  </si>
+  <si>
+    <t>10861193</t>
+  </si>
+  <si>
+    <t>14:17:24</t>
+  </si>
+  <si>
+    <t>90675302</t>
+  </si>
+  <si>
+    <t>11:00:21</t>
+  </si>
+  <si>
+    <t>8737851</t>
+  </si>
+  <si>
+    <t>13:21:37</t>
+  </si>
+  <si>
+    <t>88660287</t>
+  </si>
+  <si>
+    <t>10:03:10</t>
+  </si>
+  <si>
+    <t>90517356</t>
+  </si>
+  <si>
+    <t>14:00:35</t>
+  </si>
+  <si>
+    <t>91709766</t>
+  </si>
+  <si>
+    <t>14:45:53</t>
+  </si>
+  <si>
+    <t>7119361</t>
+  </si>
+  <si>
+    <t>15:09:58</t>
+  </si>
+  <si>
+    <t>6645818</t>
+  </si>
+  <si>
+    <t>14:55:19</t>
+  </si>
+  <si>
+    <t>07-12-2023</t>
+  </si>
+  <si>
+    <t>9598789</t>
+  </si>
+  <si>
+    <t>15:11:06</t>
+  </si>
+  <si>
+    <t>7771372</t>
+  </si>
+  <si>
+    <t>13:44:10</t>
   </si>
   <si>
     <t>From 8 March 2024, our Broking and DP operations were transitioned from RKSV Securities India Pvt. Ltd. to Upstox Securities Pvt. Ltd.</t>
@@ -95,11 +488,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="\₹#,##0.00;\-\₹#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,8 +521,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -155,39 +554,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -239,7 +638,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -350,6 +749,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -358,13 +764,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -429,31 +828,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,133 +840,2623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
+      <c r="N9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2350</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="H10">
+        <v>21950</v>
+      </c>
+      <c r="I10" t="s">
         <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+      <c r="N10" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2650</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>21950</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>21800</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+      <c r="N12" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5250</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>21800</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3447.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>21950</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14" s="2">
+        <v>68.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>21950</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <v>50</v>
+      </c>
+      <c r="N15" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1177.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>21950</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16" s="2">
+        <v>23.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1850</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>21950</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+      <c r="N17" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7532.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>22000</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18" s="2">
+        <v>150.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5750</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19">
+        <v>22000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2250</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <v>21950</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>50</v>
+      </c>
+      <c r="N20" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5950</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>21950</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>50</v>
+      </c>
+      <c r="N21" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <v>22250</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <v>50</v>
+      </c>
+      <c r="N22" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4857.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>22250</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>50</v>
+      </c>
+      <c r="N23" s="2">
+        <v>97.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6450</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>46500</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24">
+        <v>15</v>
+      </c>
+      <c r="N24" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5625</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>46500</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
+      </c>
+      <c r="N25" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7035</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>46500</v>
+      </c>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7836</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <v>46500</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27" s="2">
+        <v>522.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1327.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28">
+        <v>21750</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>50</v>
+      </c>
+      <c r="N28" s="2">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <v>21750</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>50</v>
+      </c>
+      <c r="N29" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6650</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30">
+        <v>21400</v>
+      </c>
+      <c r="I30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>50</v>
+      </c>
+      <c r="N30" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31">
+        <v>21400</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>50</v>
+      </c>
+      <c r="N31" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32">
+        <v>22100</v>
+      </c>
+      <c r="I32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>50</v>
+      </c>
+      <c r="N32" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5700</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <v>22100</v>
+      </c>
+      <c r="I33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33">
+        <v>50</v>
+      </c>
+      <c r="N33" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34">
+        <v>21900</v>
+      </c>
+      <c r="I34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" t="s">
+        <v>82</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34">
+        <v>50</v>
+      </c>
+      <c r="N34" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5600</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35">
+        <v>21900</v>
+      </c>
+      <c r="I35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35">
+        <v>50</v>
+      </c>
+      <c r="N35" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6250</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36">
+        <v>21650</v>
+      </c>
+      <c r="I36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J36" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>50</v>
+      </c>
+      <c r="N36" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5900</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37">
+        <v>21650</v>
+      </c>
+      <c r="I37" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>50</v>
+      </c>
+      <c r="N37" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2">
+        <v>700</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38">
+        <v>21650</v>
+      </c>
+      <c r="I38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>50</v>
+      </c>
+      <c r="N38" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2">
+        <v>6300</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39">
+        <v>21750</v>
+      </c>
+      <c r="I39" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K39" t="s">
+        <v>94</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39">
+        <v>50</v>
+      </c>
+      <c r="N39" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8250</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40">
+        <v>21750</v>
+      </c>
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" t="s">
+        <v>96</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>50</v>
+      </c>
+      <c r="N40" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2850</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41">
+        <v>21750</v>
+      </c>
+      <c r="I41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" t="s">
+        <v>99</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>50</v>
+      </c>
+      <c r="N41" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3150</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42">
+        <v>21750</v>
+      </c>
+      <c r="I42" t="s">
+        <v>97</v>
+      </c>
+      <c r="J42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K42" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42">
+        <v>50</v>
+      </c>
+      <c r="N42" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5150</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43">
+        <v>21500</v>
+      </c>
+      <c r="I43" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" t="s">
+        <v>102</v>
+      </c>
+      <c r="K43" t="s">
+        <v>103</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43">
+        <v>50</v>
+      </c>
+      <c r="N43" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4837.5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44">
+        <v>21500</v>
+      </c>
+      <c r="I44" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" t="s">
+        <v>104</v>
+      </c>
+      <c r="K44" t="s">
+        <v>105</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44">
+        <v>50</v>
+      </c>
+      <c r="N44" s="2">
+        <v>96.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2">
+        <v>235</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45">
+        <v>21250</v>
+      </c>
+      <c r="I45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K45" t="s">
+        <v>108</v>
+      </c>
+      <c r="L45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45">
+        <v>50</v>
+      </c>
+      <c r="N45" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1567.5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46">
+        <v>21250</v>
+      </c>
+      <c r="I46" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46" t="s">
+        <v>110</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46">
+        <v>50</v>
+      </c>
+      <c r="N46" s="2">
+        <v>31.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <v>21250</v>
+      </c>
+      <c r="I47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" t="s">
+        <v>112</v>
+      </c>
+      <c r="L47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47">
+        <v>50</v>
+      </c>
+      <c r="N47" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48">
+        <v>21500</v>
+      </c>
+      <c r="I48" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" t="s">
+        <v>113</v>
+      </c>
+      <c r="K48" t="s">
+        <v>114</v>
+      </c>
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48">
+        <v>50</v>
+      </c>
+      <c r="N48" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49">
+        <v>21250</v>
+      </c>
+      <c r="I49" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" t="s">
+        <v>115</v>
+      </c>
+      <c r="K49" t="s">
+        <v>116</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49">
+        <v>50</v>
+      </c>
+      <c r="N49" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50">
+        <v>21500</v>
+      </c>
+      <c r="I50" t="s">
+        <v>106</v>
+      </c>
+      <c r="J50" t="s">
+        <v>117</v>
+      </c>
+      <c r="K50" t="s">
+        <v>118</v>
+      </c>
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50">
+        <v>50</v>
+      </c>
+      <c r="N50" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2">
+        <v>4100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51">
+        <v>21500</v>
+      </c>
+      <c r="I51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51" t="s">
+        <v>119</v>
+      </c>
+      <c r="K51" t="s">
+        <v>120</v>
+      </c>
+      <c r="L51" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51">
+        <v>50</v>
+      </c>
+      <c r="N51" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="2">
+        <v>4400</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52">
+        <v>21500</v>
+      </c>
+      <c r="I52" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" t="s">
+        <v>121</v>
+      </c>
+      <c r="K52" t="s">
+        <v>122</v>
+      </c>
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="2">
+        <v>6020</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53">
+        <v>21350</v>
+      </c>
+      <c r="I53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53" t="s">
+        <v>124</v>
+      </c>
+      <c r="L53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53">
+        <v>50</v>
+      </c>
+      <c r="N53" s="2">
+        <v>120.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="2">
+        <v>6150</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54">
+        <v>21350</v>
+      </c>
+      <c r="I54" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54" t="s">
+        <v>125</v>
+      </c>
+      <c r="K54" t="s">
+        <v>126</v>
+      </c>
+      <c r="L54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54">
+        <v>50</v>
+      </c>
+      <c r="N54" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4550</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55">
+        <v>21100</v>
+      </c>
+      <c r="I55" t="s">
+        <v>127</v>
+      </c>
+      <c r="J55" t="s">
+        <v>128</v>
+      </c>
+      <c r="K55" t="s">
+        <v>129</v>
+      </c>
+      <c r="L55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55">
+        <v>50</v>
+      </c>
+      <c r="N55" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3750</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56">
+        <v>21100</v>
+      </c>
+      <c r="I56" t="s">
+        <v>127</v>
+      </c>
+      <c r="J56" t="s">
+        <v>130</v>
+      </c>
+      <c r="K56" t="s">
+        <v>131</v>
+      </c>
+      <c r="L56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56">
+        <v>50</v>
+      </c>
+      <c r="N56" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3957.5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57">
+        <v>20850</v>
+      </c>
+      <c r="I57" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57">
+        <v>50</v>
+      </c>
+      <c r="N57" s="2">
+        <v>79.150000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2750</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58">
+        <v>20850</v>
+      </c>
+      <c r="I58" t="s">
+        <v>127</v>
+      </c>
+      <c r="J58" t="s">
+        <v>134</v>
+      </c>
+      <c r="K58" t="s">
+        <v>135</v>
+      </c>
+      <c r="L58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58">
+        <v>50</v>
+      </c>
+      <c r="N58" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3237.5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59">
+        <v>20850</v>
+      </c>
+      <c r="I59" t="s">
+        <v>127</v>
+      </c>
+      <c r="J59" t="s">
+        <v>136</v>
+      </c>
+      <c r="K59" t="s">
+        <v>137</v>
+      </c>
+      <c r="L59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M59">
+        <v>50</v>
+      </c>
+      <c r="N59" s="2">
+        <v>64.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60">
+        <v>20850</v>
+      </c>
+      <c r="I60" t="s">
+        <v>127</v>
+      </c>
+      <c r="J60" t="s">
+        <v>138</v>
+      </c>
+      <c r="K60" t="s">
+        <v>139</v>
+      </c>
+      <c r="L60" t="s">
+        <v>28</v>
+      </c>
+      <c r="M60">
+        <v>50</v>
+      </c>
+      <c r="N60" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5750</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61">
+        <v>21050</v>
+      </c>
+      <c r="I61" t="s">
+        <v>127</v>
+      </c>
+      <c r="J61" t="s">
+        <v>140</v>
+      </c>
+      <c r="K61" t="s">
+        <v>141</v>
+      </c>
+      <c r="L61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61">
+        <v>50</v>
+      </c>
+      <c r="N61" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="2">
+        <v>7127.5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62">
+        <v>21050</v>
+      </c>
+      <c r="I62" t="s">
+        <v>127</v>
+      </c>
+      <c r="J62" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62" t="s">
+        <v>143</v>
+      </c>
+      <c r="L62" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62">
+        <v>50</v>
+      </c>
+      <c r="N62" s="2">
+        <v>142.55000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="2">
+        <v>7050</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63">
+        <v>20950</v>
+      </c>
+      <c r="I63" t="s">
+        <v>127</v>
+      </c>
+      <c r="J63" t="s">
+        <v>144</v>
+      </c>
+      <c r="K63" t="s">
+        <v>145</v>
+      </c>
+      <c r="L63" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63">
+        <v>50</v>
+      </c>
+      <c r="N63" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5750</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64">
+        <v>20950</v>
+      </c>
+      <c r="I64" t="s">
+        <v>127</v>
+      </c>
+      <c r="J64" t="s">
+        <v>146</v>
+      </c>
+      <c r="K64" t="s">
+        <v>147</v>
+      </c>
+      <c r="L64" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64">
+        <v>50</v>
+      </c>
+      <c r="N64" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="2">
+        <v>6087.5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65">
+        <v>20800</v>
+      </c>
+      <c r="I65" t="s">
+        <v>148</v>
+      </c>
+      <c r="J65" t="s">
+        <v>149</v>
+      </c>
+      <c r="K65" t="s">
+        <v>150</v>
+      </c>
+      <c r="L65" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65">
+        <v>50</v>
+      </c>
+      <c r="N65" s="2">
+        <v>121.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5400</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66">
+        <v>20800</v>
+      </c>
+      <c r="I66" t="s">
+        <v>148</v>
+      </c>
+      <c r="J66" t="s">
+        <v>151</v>
+      </c>
+      <c r="K66" t="s">
+        <v>152</v>
+      </c>
+      <c r="L66" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66">
+        <v>50</v>
+      </c>
+      <c r="N66" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A72:I72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
